--- a/teaching/traditional_assets/database/data/switzerland/switzerland_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_brokerage_investment_banking.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0171</v>
+        <v>0.0799</v>
       </c>
       <c r="E2">
-        <v>0.368</v>
+        <v>0.6395</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003175214267604788</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002826730531219859</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>93.69</v>
+        <v>149.95</v>
       </c>
       <c r="L2">
-        <v>0.0814376982919727</v>
+        <v>0.1135210841093194</v>
       </c>
       <c r="M2">
-        <v>70.333</v>
+        <v>68.21000000000001</v>
       </c>
       <c r="N2">
-        <v>0.04492112154307977</v>
+        <v>0.02820576437993633</v>
       </c>
       <c r="O2">
-        <v>0.7506991140996905</v>
+        <v>0.4548849616538847</v>
       </c>
       <c r="P2">
-        <v>51.543</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.03292009963594558</v>
+        <v>0.02208162758962908</v>
       </c>
       <c r="R2">
-        <v>0.5501440922190202</v>
+        <v>0.3561187062354119</v>
       </c>
       <c r="S2">
-        <v>18.79</v>
+        <v>14.81</v>
       </c>
       <c r="T2">
-        <v>0.267157664254333</v>
+        <v>0.2171235889165812</v>
       </c>
       <c r="U2">
-        <v>4295.85</v>
+        <v>3447.05</v>
       </c>
       <c r="V2">
-        <v>2.74372485150412</v>
+        <v>1.425402142000579</v>
       </c>
       <c r="W2">
-        <v>0.1277828606282403</v>
+        <v>0.2058212058212058</v>
       </c>
       <c r="X2">
-        <v>0.05301835763155835</v>
+        <v>0.03627442344356857</v>
       </c>
       <c r="Y2">
-        <v>0.07476450299668197</v>
+        <v>0.1695467823776373</v>
       </c>
       <c r="Z2">
-        <v>-0.4227303789256465</v>
+        <v>-0.4357651374694018</v>
       </c>
       <c r="AA2">
-        <v>-8.980072432909479e-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0424107346005772</v>
+        <v>0.0302374292035237</v>
       </c>
       <c r="AC2">
-        <v>-0.0425005353249063</v>
+        <v>-0.0302374292035237</v>
       </c>
       <c r="AD2">
-        <v>482</v>
+        <v>481.3</v>
       </c>
       <c r="AE2">
-        <v>102.4653737291704</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>584.4653737291703</v>
+        <v>481.3</v>
       </c>
       <c r="AG2">
-        <v>-3711.38462627083</v>
+        <v>-2965.75</v>
       </c>
       <c r="AH2">
-        <v>0.2718234517540827</v>
+        <v>0.1659884121947855</v>
       </c>
       <c r="AI2">
-        <v>0.3946516131281633</v>
+        <v>0.3305404848568093</v>
       </c>
       <c r="AJ2">
-        <v>1.729697170231939</v>
+        <v>5.417389715955792</v>
       </c>
       <c r="AK2">
-        <v>1.318485522153598</v>
+        <v>1.489615510183581</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-5.07</v>
-      </c>
-      <c r="AN2">
-        <v>19.96189845108921</v>
-      </c>
-      <c r="AP2">
-        <v>-153.7059813745892</v>
+        <v>-6.319999999999999</v>
       </c>
       <c r="AQ2">
         <v>-0</v>
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Compagnie Financière Tradition SA (SWX:CFT)</t>
+          <t>Swissquote Group Holding Ltd (SWX:SQN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0171</v>
+        <v>0.133</v>
       </c>
       <c r="E3">
-        <v>0.389</v>
+        <v>1.101</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,106 +728,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.004524600808031234</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.003712172486147173</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>54.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="L3">
-        <v>0.05966064586754242</v>
+        <v>0.2488702388637831</v>
       </c>
       <c r="M3">
-        <v>42.02</v>
+        <v>19.46</v>
       </c>
       <c r="N3">
-        <v>0.05396866170048805</v>
+        <v>0.01348953278802163</v>
       </c>
       <c r="O3">
-        <v>0.7710091743119265</v>
+        <v>0.2523994811932556</v>
       </c>
       <c r="P3">
-        <v>35.9</v>
+        <v>15.7</v>
       </c>
       <c r="Q3">
-        <v>0.04610839969175443</v>
+        <v>0.01088312768612228</v>
       </c>
       <c r="R3">
-        <v>0.6587155963302752</v>
+        <v>0.2036316472114137</v>
       </c>
       <c r="S3">
-        <v>6.119999999999997</v>
+        <v>3.760000000000002</v>
       </c>
       <c r="T3">
-        <v>0.1456449309852451</v>
+        <v>0.1932168550873588</v>
       </c>
       <c r="U3">
-        <v>302</v>
+        <v>3088.8</v>
       </c>
       <c r="V3">
-        <v>0.3878756742871821</v>
+        <v>2.141134063496465</v>
       </c>
       <c r="W3">
-        <v>0.1429695697796432</v>
+        <v>0.2108285479901559</v>
       </c>
       <c r="X3">
-        <v>0.05301835763155835</v>
+        <v>0.02953243135499795</v>
       </c>
       <c r="Y3">
-        <v>0.08995121214808488</v>
+        <v>0.1812961166351579</v>
       </c>
       <c r="Z3">
-        <v>2.175860574567578</v>
+        <v>-0.08630488076665924</v>
       </c>
       <c r="AA3">
-        <v>0.008077169758602143</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.04184443150885456</v>
+        <v>0.02911652075236308</v>
       </c>
       <c r="AC3">
-        <v>-0.03376726175025242</v>
+        <v>-0.02911652075236308</v>
       </c>
       <c r="AD3">
-        <v>376.4</v>
+        <v>47</v>
       </c>
       <c r="AE3">
-        <v>88.33388580931734</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>464.7338858093173</v>
+        <v>47</v>
       </c>
       <c r="AG3">
-        <v>162.7338858093173</v>
+        <v>-3041.8</v>
       </c>
       <c r="AH3">
-        <v>0.3737804391189824</v>
+        <v>0.03155209452201933</v>
       </c>
       <c r="AI3">
-        <v>0.5345246986511427</v>
+        <v>0.09763190693809722</v>
       </c>
       <c r="AJ3">
-        <v>0.1728758395533652</v>
+        <v>1.902076038019009</v>
       </c>
       <c r="AK3">
-        <v>0.2867891570790029</v>
+        <v>1.166602746030529</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-1.47</v>
-      </c>
-      <c r="AN3">
-        <v>17.26605504587156</v>
-      </c>
-      <c r="AP3">
-        <v>7.46485714721639</v>
-      </c>
-      <c r="AQ3">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Swissquote Group Holding Ltd (SWX:SQN)</t>
+          <t>Compagnie Financière Tradition SA (SWX:CFT)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,10 +838,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0941</v>
+        <v>0.0268</v>
       </c>
       <c r="E4">
-        <v>0.347</v>
+        <v>0.178</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -865,103 +850,100 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001514013762849284</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001287372351696592</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>41.9</v>
+        <v>79.2</v>
       </c>
       <c r="L4">
-        <v>0.1830493665356051</v>
+        <v>0.07893163244967112</v>
       </c>
       <c r="M4">
-        <v>21.45</v>
+        <v>47.58000000000001</v>
       </c>
       <c r="N4">
-        <v>0.02877263581488933</v>
+        <v>0.05053637812002125</v>
       </c>
       <c r="O4">
-        <v>0.5119331742243437</v>
+        <v>0.6007575757575758</v>
       </c>
       <c r="P4">
-        <v>15.2</v>
+        <v>37.7</v>
       </c>
       <c r="Q4">
-        <v>0.02038900067069081</v>
+        <v>0.04004248539564525</v>
       </c>
       <c r="R4">
-        <v>0.3627684964200477</v>
+        <v>0.476010101010101</v>
       </c>
       <c r="S4">
-        <v>6.25</v>
+        <v>9.880000000000003</v>
       </c>
       <c r="T4">
-        <v>0.2913752913752914</v>
+        <v>0.2076502732240438</v>
       </c>
       <c r="U4">
-        <v>3988.9</v>
+        <v>348.5</v>
       </c>
       <c r="V4">
-        <v>5.35063715627096</v>
+        <v>0.370154009559214</v>
       </c>
       <c r="W4">
-        <v>0.1277828606282403</v>
+        <v>0.2058212058212058</v>
       </c>
       <c r="X4">
-        <v>0.04411850113987877</v>
+        <v>0.03627442344356857</v>
       </c>
       <c r="Y4">
-        <v>0.08366435948836155</v>
+        <v>0.1695467823776373</v>
       </c>
       <c r="Z4">
-        <v>-0.06975505121789273</v>
+        <v>2.32753421479935</v>
       </c>
       <c r="AA4">
-        <v>-8.980072432909479e-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0424107346005772</v>
+        <v>0.0302374292035237</v>
       </c>
       <c r="AC4">
-        <v>-0.0425005353249063</v>
+        <v>-0.0302374292035237</v>
       </c>
       <c r="AD4">
-        <v>79.59999999999999</v>
+        <v>409.3</v>
       </c>
       <c r="AE4">
-        <v>9.017211248418993</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>88.61721124841898</v>
+        <v>409.3</v>
       </c>
       <c r="AG4">
-        <v>-3900.282788751581</v>
+        <v>60.80000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.1062407177952677</v>
+        <v>0.3030056262955286</v>
       </c>
       <c r="AI4">
-        <v>0.195055809144689</v>
+        <v>0.4926576793452095</v>
       </c>
       <c r="AJ4">
-        <v>1.236307869644176</v>
+        <v>0.06066048089394394</v>
       </c>
       <c r="AK4">
-        <v>1.103463413323858</v>
+        <v>0.1260626166286544</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>37.02325581395349</v>
-      </c>
-      <c r="AP4">
-        <v>-1814.085018023991</v>
+        <v>-1.26</v>
+      </c>
+      <c r="AQ4">
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -980,9 +962,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D5">
-        <v>-0.3720000000000001</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -990,103 +969,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.1027149483586094</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.1027149483586094</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-2.71</v>
+        <v>-6.35</v>
       </c>
       <c r="L5">
-        <v>-0.3366459627329192</v>
+        <v>-0.8246753246753246</v>
       </c>
       <c r="M5">
-        <v>6.863</v>
+        <v>1.17</v>
       </c>
       <c r="N5">
-        <v>0.1649759615384615</v>
+        <v>0.03421052631578947</v>
       </c>
       <c r="O5">
-        <v>-2.532472324723247</v>
+        <v>-0.184251968503937</v>
       </c>
       <c r="P5">
-        <v>0.443</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.01064903846153846</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>-0.1634686346863469</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>6.42</v>
+        <v>1.17</v>
       </c>
       <c r="T5">
-        <v>0.9354509689640099</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>4.95</v>
+        <v>9.75</v>
       </c>
       <c r="V5">
-        <v>0.1189903846153846</v>
+        <v>0.2850877192982456</v>
       </c>
       <c r="W5">
-        <v>-0.02306382978723404</v>
+        <v>-0.05857933579335792</v>
       </c>
       <c r="X5">
-        <v>0.05583076357426736</v>
+        <v>0.04124120121827186</v>
       </c>
       <c r="Y5">
-        <v>-0.0788945933615014</v>
+        <v>-0.0998205370116298</v>
       </c>
       <c r="Z5">
-        <v>0.05742851107317683</v>
+        <v>0.06049654305468258</v>
       </c>
       <c r="AA5">
-        <v>-0.005898766549193185</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0439408694677758</v>
+        <v>0.03073001827136652</v>
       </c>
       <c r="AC5">
-        <v>-0.04983963601696899</v>
+        <v>-0.03073001827136652</v>
       </c>
       <c r="AD5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE5">
-        <v>5.114276671434027</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>31.11427667143403</v>
+        <v>25</v>
       </c>
       <c r="AG5">
-        <v>26.16427667143403</v>
+        <v>15.25</v>
       </c>
       <c r="AH5">
-        <v>0.4278977677523587</v>
+        <v>0.4222972972972973</v>
       </c>
       <c r="AI5">
-        <v>0.197909994754869</v>
+        <v>0.1737317581653926</v>
       </c>
       <c r="AJ5">
-        <v>0.3861072228114486</v>
+        <v>0.3083923154701719</v>
       </c>
       <c r="AK5">
-        <v>0.1718346367473511</v>
+        <v>0.1136787178531495</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-3.6</v>
-      </c>
-      <c r="AN5">
-        <v>132.6530612244898</v>
-      </c>
-      <c r="AP5">
-        <v>133.4912075073165</v>
+        <v>-5.06</v>
       </c>
       <c r="AQ5">
         <v>-0</v>
